--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1097,133 +1097,133 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3102,210 +3102,210 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>10</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>11</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>13</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>14</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>15</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>16</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>9</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>17</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>9</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>18</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="F258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1097,133 +1097,133 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3102,210 +3102,210 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>16</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>14</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>16</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>17</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>16</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>18</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>16</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>19</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>16</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>20</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>16</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>21</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>16</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>22</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>16</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>23</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>16</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>24</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>16</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>25</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>26</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>27</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
